--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,19 +479,21 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-291</v>
+        <v>-371</v>
       </c>
       <c r="D2" t="n">
-        <v>-152</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>-44</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-137</v>
+      </c>
       <c r="F2" t="n">
-        <v>-71</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>-68</v>
-      </c>
+        <v>-120</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-70</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,17 +503,17 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-232</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>-209</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-191</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-18</v>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>-82</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-150</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,17 +523,21 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-197</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-138</v>
-      </c>
+        <v>-443</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-59</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>-145</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-27</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-156</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,17 +547,19 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-101</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-194</v>
+      </c>
       <c r="E5" t="n">
-        <v>-91</v>
+        <v>-172</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>-10</v>
-      </c>
+      <c r="G5" t="n">
+        <v>-85</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -561,21 +569,19 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-445</v>
+        <v>-236</v>
       </c>
       <c r="D6" t="n">
-        <v>-38</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>-161</v>
-      </c>
+        <v>-32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-144</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-183</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-63</v>
-      </c>
+        <v>-60</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -585,20 +591,20 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-359</v>
+        <v>-673</v>
       </c>
       <c r="D7" t="n">
-        <v>-122</v>
+        <v>-164</v>
       </c>
       <c r="E7" t="n">
-        <v>-131</v>
+        <v>-154</v>
       </c>
       <c r="F7" t="n">
-        <v>-63</v>
+        <v>-180</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-43</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="8">
@@ -609,18 +615,22 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-223</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>-613</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-137</v>
+      </c>
       <c r="E8" t="n">
-        <v>-32</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>-200</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-156</v>
+      </c>
       <c r="G8" t="n">
-        <v>-23</v>
+        <v>-73</v>
       </c>
       <c r="H8" t="n">
-        <v>-168</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="9">
@@ -631,21 +641,21 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-528</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-162</v>
-      </c>
+        <v>-508</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-143</v>
+        <v>-89</v>
       </c>
       <c r="F9" t="n">
-        <v>-52</v>
+        <v>-132</v>
       </c>
       <c r="G9" t="n">
-        <v>-171</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>-173</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-114</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -655,18 +665,16 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-260</v>
+        <v>-66</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>-69</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>-134</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-22</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-57</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="11">
@@ -677,18 +685,14 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-257</v>
+        <v>-137</v>
       </c>
       <c r="D11" t="n">
-        <v>-82</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-63</v>
-      </c>
+        <v>-137</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-112</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,21 +479,23 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-371</v>
+        <v>-753</v>
       </c>
       <c r="D2" t="n">
-        <v>-44</v>
+        <v>-185</v>
       </c>
       <c r="E2" t="n">
-        <v>-137</v>
+        <v>-160</v>
       </c>
       <c r="F2" t="n">
-        <v>-120</v>
+        <v>-140</v>
       </c>
       <c r="G2" t="n">
-        <v>-70</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>-110</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-158</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,17 +505,21 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-209</v>
+        <v>-389</v>
       </c>
       <c r="D3" t="n">
-        <v>-191</v>
+        <v>-82</v>
       </c>
       <c r="E3" t="n">
-        <v>-18</v>
+        <v>-94</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>-62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-151</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,21 +529,15 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-443</v>
+        <v>-80</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-145</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-27</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-156</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-115</v>
-      </c>
+        <v>-80</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +547,16 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-451</v>
+        <v>-240</v>
       </c>
       <c r="D5" t="n">
-        <v>-194</v>
+        <v>-176</v>
       </c>
       <c r="E5" t="n">
-        <v>-172</v>
+        <v>-64</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>-85</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -569,19 +567,21 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-236</v>
+        <v>-451</v>
       </c>
       <c r="D6" t="n">
-        <v>-32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-144</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>-172</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-57</v>
+      </c>
       <c r="G6" t="n">
-        <v>-60</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>-181</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -591,20 +591,18 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-673</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-164</v>
-      </c>
+        <v>-327</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-154</v>
+        <v>-83</v>
       </c>
       <c r="F7" t="n">
-        <v>-180</v>
+        <v>-51</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-175</v>
+        <v>-193</v>
       </c>
     </row>
     <row r="8">
@@ -615,23 +613,17 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-613</v>
+        <v>-236</v>
       </c>
       <c r="D8" t="n">
-        <v>-137</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-200</v>
-      </c>
+        <v>-116</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-156</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-73</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-47</v>
-      </c>
+        <v>-120</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -641,20 +633,18 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-508</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>-385</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-73</v>
+      </c>
       <c r="E9" t="n">
-        <v>-89</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-132</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-173</v>
-      </c>
+        <v>-176</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-114</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="10">
@@ -665,16 +655,14 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-66</v>
+        <v>-45</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>-22</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-44</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="11">
@@ -685,15 +673,19 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-137</v>
+        <v>-290</v>
       </c>
       <c r="D11" t="n">
-        <v>-137</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>-99</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-150</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>-41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,23 +479,19 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-753</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-185</v>
-      </c>
+        <v>-387</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-160</v>
+        <v>-173</v>
       </c>
       <c r="F2" t="n">
-        <v>-140</v>
+        <v>-163</v>
       </c>
       <c r="G2" t="n">
-        <v>-110</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-158</v>
-      </c>
+        <v>-51</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -505,21 +501,17 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-389</v>
+        <v>-354</v>
       </c>
       <c r="D3" t="n">
-        <v>-82</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-94</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>-62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-151</v>
-      </c>
+        <v>-186</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-168</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,15 +521,19 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-80</v>
+        <v>-187</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>-80</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,16 +543,20 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-240</v>
+        <v>-486</v>
       </c>
       <c r="D5" t="n">
-        <v>-176</v>
+        <v>-93</v>
       </c>
       <c r="E5" t="n">
-        <v>-64</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>-161</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-162</v>
+      </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -567,125 +567,17 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-451</v>
+        <v>-210</v>
       </c>
       <c r="D6" t="n">
-        <v>-172</v>
+        <v>-147</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>-57</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-181</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>90005</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-327</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>-83</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-51</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>-193</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>90006</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-236</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-116</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>90007</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-385</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-73</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-176</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>-136</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>90008</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>90009</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-290</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-99</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-150</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>-41</v>
-      </c>
+        <v>-63</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,14 +479,14 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-387</v>
+        <v>-245</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-173</v>
+        <v>-16</v>
       </c>
       <c r="F2" t="n">
-        <v>-163</v>
+        <v>-178</v>
       </c>
       <c r="G2" t="n">
         <v>-51</v>
@@ -501,17 +501,21 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-354</v>
+        <v>-463</v>
       </c>
       <c r="D3" t="n">
-        <v>-186</v>
+        <v>-92</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-168</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>-126</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-79</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-166</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,18 +525,16 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-187</v>
+        <v>-355</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>-28</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-107</v>
-      </c>
+      <c r="E4" t="n">
+        <v>-173</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-52</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="5">
@@ -543,21 +545,15 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-486</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-93</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-161</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-70</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-162</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>-89</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>-89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -567,17 +563,125 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-210</v>
+        <v>-208</v>
       </c>
       <c r="D6" t="n">
         <v>-147</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>-63</v>
-      </c>
+      <c r="F6" t="n">
+        <v>-61</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90005</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-217</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-68</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-149</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-155</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-94</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-41</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-737</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-176</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-188</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-194</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-91</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>-91</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-438</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-85</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-181</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-172</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,209 +479,19 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-245</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>-16</v>
-      </c>
+        <v>-439</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-140</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-51</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>90001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-463</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-92</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>-126</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-79</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-166</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>90002</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-355</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>-173</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>-182</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>90003</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-89</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>-89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>90004</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-208</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-147</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>-61</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>90005</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-217</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-68</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>-149</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>90006</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-155</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-94</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>-41</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>90007</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-737</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-176</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-70</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-188</v>
-      </c>
-      <c r="G9" t="n">
         <v>-194</v>
       </c>
-      <c r="H9" t="n">
-        <v>-109</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>90008</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-91</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>-91</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>90009</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-438</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-85</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>-181</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-172</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>-105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,19 +479,43 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-439</v>
+        <v>-384</v>
       </c>
       <c r="D2" t="n">
-        <v>-140</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>-127</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-70</v>
+      </c>
       <c r="F2" t="n">
-        <v>-194</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>-105</v>
-      </c>
+        <v>-89</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-98</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-311</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>-94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-195</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,20 +479,16 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-384</v>
+        <v>-215</v>
       </c>
       <c r="D2" t="n">
-        <v>-127</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-70</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-89</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-98</v>
-      </c>
+        <v>-185</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -503,19 +499,77 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-311</v>
+        <v>-132</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>-94</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-22</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-195</v>
-      </c>
+        <v>-132</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90002</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-135</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>-55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90003</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-237</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>-186</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90004</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-73</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>-73</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,17 +479,19 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-215</v>
+        <v>-456</v>
       </c>
       <c r="D2" t="n">
-        <v>-30</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>-185</v>
-      </c>
+        <v>-188</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-81</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>-187</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -499,14 +501,20 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-132</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>-458</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-126</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-115</v>
+      </c>
       <c r="F3" t="n">
-        <v>-132</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>-96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-121</v>
+      </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -517,20 +525,20 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-263</v>
+        <v>-359</v>
       </c>
       <c r="D4" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E4" t="n">
-        <v>-135</v>
+        <v>-67</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-55</v>
+        <v>-178</v>
       </c>
       <c r="H4" t="n">
-        <v>-61</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5">
@@ -541,17 +549,17 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-237</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-51</v>
-      </c>
+        <v>-262</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>-186</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-130</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>-132</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -561,15 +569,119 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-73</v>
+        <v>-187</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>-56</v>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>-73</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90005</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-428</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-156</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-133</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>-139</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-191</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-161</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-154</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>-11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-267</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>-170</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-238</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>-94</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>-144</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,19 +479,15 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-456</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-188</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-81</v>
-      </c>
+        <v>-150</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>-187</v>
-      </c>
+      <c r="G2" t="n">
+        <v>-150</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,21 +497,19 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-458</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-126</v>
-      </c>
+        <v>-311</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>-115</v>
+        <v>-40</v>
       </c>
       <c r="F3" t="n">
-        <v>-96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-121</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>-91</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>-180</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,20 +519,20 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-359</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-14</v>
-      </c>
+        <v>-455</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-67</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>-106</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-103</v>
+      </c>
       <c r="G4" t="n">
-        <v>-178</v>
+        <v>-187</v>
       </c>
       <c r="H4" t="n">
-        <v>-100</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +543,18 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-262</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-401</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-196</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-130</v>
+        <v>-141</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-132</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="6">
@@ -569,17 +565,19 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-187</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>-432</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-134</v>
+      </c>
       <c r="E6" t="n">
-        <v>-56</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>-139</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-159</v>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>-131</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -589,18 +587,14 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-428</v>
+        <v>-94</v>
       </c>
       <c r="D7" t="n">
-        <v>-156</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-133</v>
-      </c>
+        <v>-94</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>-139</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -611,17 +605,21 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-191</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>-224</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-26</v>
+      </c>
       <c r="F8" t="n">
-        <v>-161</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-30</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>-119</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>-51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -631,17 +629,17 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-154</v>
+        <v>-299</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>-190</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-143</v>
-      </c>
+        <v>-109</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -651,16 +649,18 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-267</v>
+        <v>-296</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>-170</v>
-      </c>
+      <c r="E10" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-196</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-97</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="11">
@@ -671,17 +671,19 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-238</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>-94</v>
-      </c>
+        <v>-259</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-99</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-144</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>-134</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,15 +479,17 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-150</v>
+        <v>-159</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>-150</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>-135</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,19 +499,15 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-311</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-91</v>
-      </c>
+        <v>-172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-172</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>-180</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,20 +517,18 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-455</v>
+        <v>-276</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-106</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-103</v>
-      </c>
+        <v>-63</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-187</v>
+        <v>-186</v>
       </c>
       <c r="H4" t="n">
-        <v>-59</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="5">
@@ -543,19 +539,15 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-401</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-196</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>-141</v>
-      </c>
+        <v>-35</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>-64</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -565,17 +557,15 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-432</v>
+        <v>-105</v>
       </c>
       <c r="D6" t="n">
-        <v>-134</v>
+        <v>-29</v>
       </c>
       <c r="E6" t="n">
-        <v>-139</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-159</v>
-      </c>
+        <v>-76</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -587,15 +577,19 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-94</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-94</v>
-      </c>
+        <v>-279</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-140</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -605,20 +599,16 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-224</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-28</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-26</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-119</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-187</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-126</v>
+      </c>
       <c r="H8" t="n">
-        <v>-51</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="9">
@@ -629,17 +619,19 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-299</v>
+        <v>-396</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-190</v>
+        <v>-189</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-109</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>-36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-171</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -649,18 +641,16 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-296</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>-68</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-196</v>
-      </c>
+        <v>-305</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-128</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-32</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="11">
@@ -671,18 +661,14 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-259</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-99</v>
-      </c>
+        <v>-122</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-134</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-26</v>
+        <v>-122</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,16 +479,18 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-159</v>
+        <v>-251</v>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>-24</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>-114</v>
+      </c>
       <c r="H2" t="n">
-        <v>-135</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="3">
@@ -499,14 +501,18 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-172</v>
+        <v>-195</v>
       </c>
       <c r="D3" t="n">
-        <v>-172</v>
+        <v>-10</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-156</v>
+      </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -517,18 +523,18 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-276</v>
+        <v>-352</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-63</v>
+        <v>-49</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-186</v>
+        <v>-119</v>
       </c>
       <c r="H4" t="n">
-        <v>-27</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="5">
@@ -539,14 +545,16 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-35</v>
+        <v>-185</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-35</v>
+        <v>-137</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>-48</v>
+      </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -557,15 +565,13 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-105</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-76</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>-30</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-30</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -577,18 +583,16 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-279</v>
+        <v>-252</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>-140</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-115</v>
+        <v>-188</v>
       </c>
       <c r="H7" t="n">
-        <v>-24</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="8">
@@ -599,17 +603,15 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-187</v>
+        <v>-49</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-126</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-61</v>
-      </c>
+        <v>-49</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -619,19 +621,15 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-396</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>-189</v>
-      </c>
+        <v>-49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>-36</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-171</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -641,17 +639,15 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-305</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-128</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>-185</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>-185</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>-177</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -661,14 +657,20 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-122</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+        <v>-437</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-86</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-194</v>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>-12</v>
+      </c>
       <c r="H11" t="n">
-        <v>-122</v>
+        <v>-145</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,19 +479,17 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-251</v>
+        <v>-101</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>-114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-15</v>
-      </c>
+        <v>-49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,19 +499,15 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-195</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-10</v>
-      </c>
+        <v>-13</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>-29</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-156</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,19 +517,17 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-352</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>-49</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>-119</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-184</v>
-      </c>
+        <v>-160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-138</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,17 +537,17 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-185</v>
+        <v>-282</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>-137</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-48</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>-110</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-172</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -565,15 +557,17 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-30</v>
+        <v>-161</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>-116</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -583,17 +577,21 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-252</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>-241</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-167</v>
+      </c>
       <c r="G7" t="n">
-        <v>-188</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-64</v>
-      </c>
+        <v>-33</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -603,15 +601,19 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-49</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>-404</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-148</v>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>-49</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>-166</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -621,15 +623,21 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-49</v>
+        <v>-449</v>
       </c>
       <c r="D9" t="n">
-        <v>-49</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+        <v>-125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-121</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-39</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>-164</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -639,13 +647,17 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-185</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>-360</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-191</v>
+      </c>
       <c r="E10" t="n">
-        <v>-185</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>-103</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-66</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -657,20 +669,18 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-437</v>
+        <v>-388</v>
       </c>
       <c r="D11" t="n">
-        <v>-86</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-194</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-12</v>
-      </c>
+        <v>-176</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-145</v>
+        <v>-198</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,17 +479,21 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-101</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>-365</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-128</v>
+      </c>
       <c r="E2" t="n">
-        <v>-49</v>
+        <v>-29</v>
       </c>
       <c r="F2" t="n">
-        <v>-52</v>
+        <v>-132</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>-76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -499,14 +503,20 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-13</v>
+        <v>-352</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-135</v>
+      </c>
       <c r="H3" t="n">
-        <v>-13</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +527,20 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-160</v>
+        <v>-342</v>
       </c>
       <c r="D4" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>-40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-113</v>
+      </c>
       <c r="F4" t="n">
-        <v>-138</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-147</v>
+      </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -537,16 +551,18 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-282</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-94</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-43</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-110</v>
+        <v>-20</v>
       </c>
       <c r="H5" t="n">
-        <v>-172</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +573,17 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-161</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>-292</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-155</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-45</v>
+        <v>-137</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>-116</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -577,20 +593,16 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-241</v>
+        <v>-179</v>
       </c>
       <c r="D7" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-14</v>
-      </c>
+        <v>-144</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-167</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-33</v>
-      </c>
+        <v>-35</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -601,18 +613,18 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-404</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-148</v>
-      </c>
+        <v>-331</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-90</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-130</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-12</v>
+      </c>
       <c r="H8" t="n">
-        <v>-166</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="9">
@@ -623,20 +635,18 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-449</v>
+        <v>-426</v>
       </c>
       <c r="D9" t="n">
-        <v>-125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-121</v>
-      </c>
+        <v>-92</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-39</v>
+        <v>-189</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-164</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="10">
@@ -647,18 +657,18 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-360</v>
+        <v>-492</v>
       </c>
       <c r="D10" t="n">
-        <v>-191</v>
+        <v>-187</v>
       </c>
       <c r="E10" t="n">
-        <v>-103</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-66</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-135</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>-170</v>
+      </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -669,19 +679,19 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-388</v>
+        <v>-369</v>
       </c>
       <c r="D11" t="n">
-        <v>-176</v>
+        <v>-62</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>-198</v>
-      </c>
+        <v>-126</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-181</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,21 +479,19 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-365</v>
+        <v>-434</v>
       </c>
       <c r="D2" t="n">
-        <v>-128</v>
+        <v>-101</v>
       </c>
       <c r="E2" t="n">
-        <v>-29</v>
+        <v>-190</v>
       </c>
       <c r="F2" t="n">
-        <v>-132</v>
+        <v>-143</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>-76</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,20 +501,18 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-352</v>
+        <v>-205</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>-52</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-11</v>
+        <v>-75</v>
       </c>
       <c r="G3" t="n">
-        <v>-135</v>
+        <v>-72</v>
       </c>
       <c r="H3" t="n">
-        <v>-154</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="4">
@@ -527,20 +523,14 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-342</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-113</v>
-      </c>
+        <v>-186</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-42</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-147</v>
-      </c>
+        <v>-186</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -551,18 +541,20 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-94</v>
+        <v>-312</v>
       </c>
       <c r="D5" t="n">
-        <v>-43</v>
+        <v>-95</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-33</v>
+      </c>
       <c r="G5" t="n">
-        <v>-20</v>
+        <v>-136</v>
       </c>
       <c r="H5" t="n">
-        <v>-31</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="6">
@@ -573,17 +565,19 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-292</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-155</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>-137</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>-250</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -593,14 +587,14 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-179</v>
+        <v>-292</v>
       </c>
       <c r="D7" t="n">
-        <v>-144</v>
+        <v>-134</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-35</v>
+        <v>-158</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -613,18 +607,14 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-331</v>
+        <v>-198</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>-130</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-12</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-189</v>
+        <v>-198</v>
       </c>
     </row>
     <row r="9">
@@ -635,18 +625,20 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-426</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-92</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>-332</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>-33</v>
+      </c>
       <c r="F9" t="n">
-        <v>-189</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-53</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-100</v>
+      </c>
       <c r="H9" t="n">
-        <v>-145</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +649,17 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-492</v>
+        <v>-168</v>
       </c>
       <c r="D10" t="n">
-        <v>-187</v>
-      </c>
-      <c r="E10" t="n">
         <v>-135</v>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>-170</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>-33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -679,19 +669,19 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-369</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-62</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>-126</v>
-      </c>
+        <v>-228</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>-114</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-181</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>-31</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,18 +479,18 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-434</v>
+        <v>-296</v>
       </c>
       <c r="D2" t="n">
-        <v>-101</v>
+        <v>-39</v>
       </c>
       <c r="E2" t="n">
-        <v>-190</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-143</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>-171</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>-86</v>
+      </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -501,18 +501,18 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-205</v>
+        <v>-176</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-75</v>
+        <v>-76</v>
       </c>
       <c r="G3" t="n">
-        <v>-72</v>
+        <v>-86</v>
       </c>
       <c r="H3" t="n">
-        <v>-58</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="4">
@@ -523,14 +523,18 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-186</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-468</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-196</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-186</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-193</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-79</v>
+      </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -541,20 +545,18 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-312</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-95</v>
-      </c>
+        <v>-373</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-33</v>
+        <v>-168</v>
       </c>
       <c r="G5" t="n">
-        <v>-136</v>
+        <v>-137</v>
       </c>
       <c r="H5" t="n">
-        <v>-48</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="6">
@@ -565,18 +567,20 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-250</v>
+        <v>-506</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-46</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>-119</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-185</v>
+      </c>
       <c r="G6" t="n">
-        <v>-121</v>
+        <v>-114</v>
       </c>
       <c r="H6" t="n">
-        <v>-83</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="7">
@@ -587,15 +591,13 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-292</v>
+        <v>-79</v>
       </c>
       <c r="D7" t="n">
-        <v>-134</v>
+        <v>-79</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>-158</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -607,15 +609,17 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-198</v>
+        <v>-226</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>-155</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-71</v>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>-198</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -625,20 +629,18 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-332</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>-372</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-102</v>
+      </c>
       <c r="E9" t="n">
-        <v>-33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-53</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-100</v>
-      </c>
+        <v>-107</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-146</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="10">
@@ -649,17 +651,15 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-168</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-135</v>
-      </c>
+        <v>-184</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>-33</v>
-      </c>
+      <c r="G10" t="n">
+        <v>-184</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -669,19 +669,15 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-228</v>
+        <v>-35</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-114</v>
+        <v>-35</v>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-31</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-83</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,19 +479,21 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-296</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-39</v>
-      </c>
+        <v>-443</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-171</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>-50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-185</v>
+      </c>
       <c r="G2" t="n">
-        <v>-86</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>-101</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-107</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,19 +503,15 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-176</v>
+        <v>-71</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>-76</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>-86</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-14</v>
-      </c>
+        <v>-71</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,19 +521,21 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-468</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-196</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>-533</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>-117</v>
+      </c>
       <c r="F4" t="n">
-        <v>-193</v>
+        <v>-181</v>
       </c>
       <c r="G4" t="n">
-        <v>-79</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>-172</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,18 +545,16 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-373</v>
+        <v>-244</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>-168</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-137</v>
-      </c>
+      <c r="E5" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-68</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="6">
@@ -567,20 +565,18 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-506</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>-119</v>
-      </c>
+        <v>-231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-92</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-185</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-114</v>
-      </c>
+        <v>-102</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-88</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="7">
@@ -591,15 +587,21 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-79</v>
+        <v>-430</v>
       </c>
       <c r="D7" t="n">
-        <v>-79</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>-129</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-114</v>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-171</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -609,17 +611,21 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-226</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>-633</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-177</v>
+      </c>
       <c r="E8" t="n">
-        <v>-155</v>
+        <v>-152</v>
       </c>
       <c r="F8" t="n">
-        <v>-71</v>
+        <v>-116</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>-188</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -629,19 +635,15 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
-        <v>-372</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-102</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>-114</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-114</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>-163</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -651,14 +653,16 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-184</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>-210</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-70</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-140</v>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>-184</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -669,15 +673,15 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-35</v>
+        <v>-94</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>-35</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>-94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/fees.xlsx
+++ b/base/data_set/fees.xlsx
@@ -479,21 +479,15 @@
         <v>90000</v>
       </c>
       <c r="C2" t="n">
-        <v>-443</v>
+        <v>-120</v>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-185</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-101</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-107</v>
-      </c>
+        <v>-120</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,13 +497,17 @@
         <v>90001</v>
       </c>
       <c r="C3" t="n">
-        <v>-71</v>
+        <v>-334</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>-37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-170</v>
+      </c>
       <c r="G3" t="n">
-        <v>-71</v>
+        <v>-127</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -521,20 +519,18 @@
         <v>90002</v>
       </c>
       <c r="C4" t="n">
-        <v>-533</v>
+        <v>-296</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-117</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-181</v>
-      </c>
+        <v>-134</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-172</v>
+        <v>-14</v>
       </c>
       <c r="H4" t="n">
-        <v>-63</v>
+        <v>-148</v>
       </c>
     </row>
     <row r="5">
@@ -545,17 +541,17 @@
         <v>90003</v>
       </c>
       <c r="C5" t="n">
-        <v>-244</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>-85</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>-223</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-166</v>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>-159</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -565,18 +561,18 @@
         <v>90004</v>
       </c>
       <c r="C6" t="n">
-        <v>-231</v>
+        <v>-245</v>
       </c>
       <c r="D6" t="n">
-        <v>-92</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>-102</v>
-      </c>
+        <v>-134</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-77</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-37</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="7">
@@ -587,21 +583,15 @@
         <v>90005</v>
       </c>
       <c r="C7" t="n">
-        <v>-430</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-129</v>
-      </c>
+        <v>-76</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-114</v>
+        <v>-76</v>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>-16</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-171</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -611,20 +601,16 @@
         <v>90006</v>
       </c>
       <c r="C8" t="n">
-        <v>-633</v>
+        <v>-248</v>
       </c>
       <c r="D8" t="n">
-        <v>-177</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-152</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-116</v>
-      </c>
+        <v>-111</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-188</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="9">
@@ -635,12 +621,16 @@
         <v>90007</v>
       </c>
       <c r="C9" t="n">
+        <v>-365</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-132</v>
+      </c>
+      <c r="E9" t="n">
         <v>-114</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-114</v>
+        <v>-119</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -653,17 +643,19 @@
         <v>90008</v>
       </c>
       <c r="C10" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-70</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-140</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+        <v>-276</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-138</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-121</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -673,15 +665,21 @@
         <v>90009</v>
       </c>
       <c r="C11" t="n">
-        <v>-94</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>-94</v>
-      </c>
+        <v>-362</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-195</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-96</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
